--- a/excels/Trad SCAG.xlsx
+++ b/excels/Trad SCAG.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" activeTab="2"/>
+    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="baseitem" sheetId="4" r:id="rId1"/>
     <sheet name="item" sheetId="5" r:id="rId2"/>
     <sheet name="class" sheetId="1" r:id="rId3"/>
+    <sheet name="background" sheetId="7" r:id="rId4"/>
+    <sheet name="feat" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
   <si>
     <t>Bárbaro</t>
   </si>
@@ -136,6 +138,90 @@
   </si>
   <si>
     <t>El Inmortal</t>
+  </si>
+  <si>
+    <t>Svirfneblin Magic</t>
+  </si>
+  <si>
+    <t>Magia Svirfneblin</t>
+  </si>
+  <si>
+    <t>City Watch</t>
+  </si>
+  <si>
+    <t>Clan Crafter</t>
+  </si>
+  <si>
+    <t>Cloistered Scholar</t>
+  </si>
+  <si>
+    <t>Courtier</t>
+  </si>
+  <si>
+    <t>Faction Agent</t>
+  </si>
+  <si>
+    <t>Far Traveler</t>
+  </si>
+  <si>
+    <t>Inheritor</t>
+  </si>
+  <si>
+    <t>Knight of the Order</t>
+  </si>
+  <si>
+    <t>Mercenary Veteran</t>
+  </si>
+  <si>
+    <t>Urban Bounty Hunter</t>
+  </si>
+  <si>
+    <t>Uthgardt Tribe Member</t>
+  </si>
+  <si>
+    <t>Variant City Watch (Investigator)</t>
+  </si>
+  <si>
+    <t>Waterdhavian Noble</t>
+  </si>
+  <si>
+    <t>Guardia de la ciudad</t>
+  </si>
+  <si>
+    <t>Guardia de la ciudad (Investigador)</t>
+  </si>
+  <si>
+    <t>Artesano del clan</t>
+  </si>
+  <si>
+    <t>Erudito Enclaustrado</t>
+  </si>
+  <si>
+    <t>Cortesano</t>
+  </si>
+  <si>
+    <t>Agente de una facción</t>
+  </si>
+  <si>
+    <t>Mercenario veterano</t>
+  </si>
+  <si>
+    <t>Forastero errante</t>
+  </si>
+  <si>
+    <t>Heredero</t>
+  </si>
+  <si>
+    <t>Caballero de la Orden</t>
+  </si>
+  <si>
+    <t>Cazarrecompensas urbano</t>
+  </si>
+  <si>
+    <t>Miembro de una tribu uthgardt</t>
+  </si>
+  <si>
+    <t>Noble de Waterdeep</t>
   </si>
 </sst>
 </file>
@@ -536,7 +622,7 @@
   <dimension ref="B1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -622,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
@@ -722,4 +808,170 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.25" customWidth="1"/>
+    <col min="3" max="3" width="29.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excels/Trad SCAG.xlsx
+++ b/excels/Trad SCAG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" activeTab="3"/>
+    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167"/>
   </bookViews>
   <sheets>
     <sheet name="baseitem" sheetId="4" r:id="rId1"/>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -814,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
